--- a/Document/学_仕様書_スチル(一枚絵_pro.xlsx
+++ b/Document/学_仕様書_スチル(一枚絵_pro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mh_naito\Dropbox\GamePlan_学校に行こう！\0.企画書・仕様書・発注書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gotoschool\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E54C840-4657-47C2-B632-0E27FF0B6B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DE2EE-6B98-4678-B1B1-65BA7F9E3786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7596" yWindow="0" windowWidth="15432" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="0" windowWidth="22050" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スチル一覧" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
   <si>
     <t>ep.No</t>
     <phoneticPr fontId="1"/>
@@ -1353,6 +1353,26 @@
   </si>
   <si>
     <t>俺は、『素敵な』先輩の忠告を無視する算段を立てるのであった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【Unityで作った画像1】</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【Unityで作った画像2】</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1625,6 +1645,56 @@
         <a:xfrm>
           <a:off x="685800" y="7551420"/>
           <a:ext cx="5326380" cy="2999724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26815</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562E762C-D8F8-9204-3ACF-CE9F1431ED33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11430000"/>
+          <a:ext cx="5513215" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2273,12 +2343,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="49.3984375" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2380,13 +2450,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E63C678-EABB-4FFA-A1E5-BDA9B771E135}">
-  <dimension ref="B2:K92"/>
+  <dimension ref="B2:K107"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:4" s="10" customFormat="1">
       <c r="B2" s="9" t="s">
@@ -2524,7 +2594,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -2557,131 +2627,136 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="2:2" s="12" customFormat="1">
-      <c r="B49" s="13" t="s">
+    <row r="48" spans="2:11">
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" s="12" customFormat="1">
+      <c r="B64" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="11" t="s">
-        <v>49</v>
+      <c r="B75" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
-      <c r="B81" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
-      <c r="B83" t="s">
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
-      <c r="B85" t="s">
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
-      <c r="B87" t="s">
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="11" t="s">
+    <row r="104" spans="2:5">
+      <c r="B104" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E104" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
-      <c r="B91" t="s">
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
-      <c r="B92" t="s">
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2696,11 +2771,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD7A53F-5008-4237-A3D0-91932FA471B9}">
   <dimension ref="A2:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:4" s="10" customFormat="1">
       <c r="B2" s="9" t="s">
@@ -3060,7 +3135,7 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3076,7 +3151,7 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3091,7 +3166,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,7 +3181,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3122,7 +3197,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
